--- a/mcmaster_excel/Metric_Thread-Locking_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_Thread-Locking_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,110 +434,172 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize, mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Thread LockerTemperature Range, °F</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize, mm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Thread LockerTemperature Range, °F</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>95911A104</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>$9.16</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -582,21 +644,29 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>95911A104</t>
+          <t>95911A107</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>$9.16</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -641,21 +711,29 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>95911A107</t>
+          <t>95911A111</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -700,21 +778,29 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>95911A111</t>
+          <t>95911A114</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -759,21 +845,29 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>95911A114</t>
+          <t>95911A118</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -783,12 +877,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -818,40 +912,96 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>95911A118</t>
+          <t>95911A154</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11.20</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>95911A159</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -896,21 +1046,29 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>95911A154</t>
+          <t>95911A161</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -955,21 +1113,29 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>95911A159</t>
+          <t>95911A164</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1014,21 +1180,29 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>95911A161</t>
+          <t>95911A168</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1073,21 +1247,29 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>95911A164</t>
+          <t>95911A171</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12.07</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1127,85 +1309,101 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>95911A168</t>
+          <t>95911A611</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>95911A171</t>
+          <t>95911A612</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1250,21 +1448,29 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>95911A611</t>
+          <t>95911A613</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1274,12 +1480,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,104 +1510,168 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>95911A612</t>
+          <t>95911A204</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>95911A613</t>
+          <t>95911A207</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>95911A211</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1446,21 +1716,29 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>95911A204</t>
+          <t>95911A214</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1505,21 +1783,29 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>95911A207</t>
+          <t>95911A218</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1564,21 +1850,29 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>95911A211</t>
+          <t>95911A221</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1623,80 +1917,96 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>95911A214</t>
+          <t>95911A511</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>95911A614</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>95911A218</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1736,26 +2046,34 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>95911A221</t>
+          <t>95911A615</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1795,26 +2113,34 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>95911A511</t>
+          <t>95911A616</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14.17</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1859,21 +2185,29 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>95911A614</t>
+          <t>95911A617</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1918,21 +2252,29 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>95911A615</t>
+          <t>95911A618</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1942,17 +2284,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1977,21 +2319,29 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>95911A616</t>
+          <t>95911A622</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2001,17 +2351,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2031,26 +2381,34 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>95911A617</t>
+          <t>95911A254</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2060,17 +2418,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2090,45 +2448,101 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>95911A618</t>
+          <t>95911A257</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>95911A261</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2168,26 +2582,34 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>95911A622</t>
+          <t>95911A512</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2232,21 +2654,29 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>95911A254</t>
+          <t>95911A513</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>14.17</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2286,85 +2716,101 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>95911A257</t>
+          <t>95911A623</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>95911A261</t>
+          <t>95911A624</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13.33</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2404,26 +2850,34 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>95911A512</t>
+          <t>95911A625</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2463,26 +2917,34 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>95911A513</t>
+          <t>95911A626</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2527,21 +2989,29 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>95911A623</t>
+          <t>95911A627</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2586,21 +3056,29 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>95911A624</t>
+          <t>95911A628</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2645,21 +3123,29 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>95911A625</t>
+          <t>95911A629</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2704,21 +3190,29 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>95911A626</t>
+          <t>95911A631</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2758,26 +3252,34 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>95911A627</t>
+          <t>95911A633</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2787,12 +3289,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2822,21 +3324,29 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>95911A628</t>
+          <t>95911A634</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2846,12 +3356,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2876,26 +3386,34 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>95911A629</t>
+          <t>95911A514</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2905,12 +3423,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2940,21 +3458,29 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>95911A631</t>
+          <t>95911A304</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2964,12 +3490,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2994,45 +3520,101 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>95911A633</t>
+          <t>95911A307</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>95911A311</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3072,26 +3654,34 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>95911A634</t>
+          <t>95911A515</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3131,85 +3721,101 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>95911A514</t>
+          <t>95911A637</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>95911A304</t>
+          <t>95911A644</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3219,17 +3825,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3254,21 +3860,29 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>95911A307</t>
+          <t>95911A516</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3278,17 +3892,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3313,21 +3927,29 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>95911A311</t>
+          <t>95911A517</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3337,17 +3959,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3367,26 +3989,34 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>95911A515</t>
+          <t>95911A518</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>16.67</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3396,17 +4026,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3431,40 +4061,96 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>95911A637</t>
+          <t>95911A519</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-70° to 250°</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>95911A521</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3509,21 +4195,29 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>95911A644</t>
+          <t>95911A646</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3563,375 +4257,29 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>95911A516</t>
+          <t>95911A647</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>95911A517</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>95911A518</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>95911A519</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>10.33</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>95911A521</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>95911A646</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>-70° to 250°</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>95911A647</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
           <t>6.33</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
